--- a/extras/Estatistica T1 IA.xlsx
+++ b/extras/Estatistica T1 IA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesley.OPUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesley.OPUS\Documents\Jesley\Projetos\Java\T1-IA\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
   <si>
     <t>Tipo de Agente</t>
   </si>
@@ -83,12 +83,6 @@
     <t>UCFS</t>
   </si>
   <si>
-    <t>GBFS</t>
-  </si>
-  <si>
-    <t>A*</t>
-  </si>
-  <si>
     <t>A(t)</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>Busca em Profundidade Limitada</t>
   </si>
   <si>
-    <t>Busca Guiada Gulosa</t>
-  </si>
-  <si>
-    <t>Busca A*</t>
-  </si>
-  <si>
     <t>Buscas em um espaço de N = 2</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>Solução encontrada</t>
   </si>
   <si>
-    <t>B-BAA</t>
-  </si>
-  <si>
     <t>Significado</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>I(s)</t>
   </si>
   <si>
-    <t>BA-AB</t>
-  </si>
-  <si>
     <t>Estado Inicial</t>
   </si>
   <si>
@@ -155,15 +137,128 @@
     <t>IDFS(15)</t>
   </si>
   <si>
+    <t>Buscas em um espaço de N = 100</t>
+  </si>
+  <si>
+    <t>GBFS(h1)</t>
+  </si>
+  <si>
+    <t>GBFS(h2)</t>
+  </si>
+  <si>
+    <t>A*(h1)</t>
+  </si>
+  <si>
+    <t>A*(h2)</t>
+  </si>
+  <si>
+    <t>GBFS(h)</t>
+  </si>
+  <si>
+    <t>Busca Guiada Gulosa usando a heurística h</t>
+  </si>
+  <si>
+    <t>Busca A* usando a heurística h</t>
+  </si>
+  <si>
+    <t>A*(h)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I(s) = B-ABA</t>
+  </si>
+  <si>
     <t>Buscas em um espaço de N = 4</t>
+  </si>
+  <si>
+    <t>I(s) = BAABABAB-</t>
+  </si>
+  <si>
+    <t>Buscas em um espaço de N = 8</t>
+  </si>
+  <si>
+    <t>I(s) = BBAAA-BBAAAABBBAB</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>BPL(10)</t>
+  </si>
+  <si>
+    <t>BPL(8)</t>
+  </si>
+  <si>
+    <t>BPL(16)</t>
+  </si>
+  <si>
+    <t>BPL(11)</t>
+  </si>
+  <si>
+    <t>BPL(14)</t>
+  </si>
+  <si>
+    <t>BBBBAAA-A</t>
+  </si>
+  <si>
+    <t>B-BBBAAAA</t>
+  </si>
+  <si>
+    <t>BBBBAA-AA</t>
+  </si>
+  <si>
+    <t>BPL(13)</t>
+  </si>
+  <si>
+    <t>BBB-BBBBBAAAAAAAA</t>
+  </si>
+  <si>
+    <t>BBBBBBBBA-AAAAAAA</t>
+  </si>
+  <si>
+    <t>BBBBBBBBAAAA-AAAA</t>
+  </si>
+  <si>
+    <t>A entrada para N = 100</t>
+  </si>
+  <si>
+    <t>Saida para N = 100</t>
+  </si>
+  <si>
+    <t>BBABABBAABBAABABBBABBABABBBBABABBABAAAAAAABABBAAAAA-BAAABAAAAABABBAAAABBABBABBABAAABBABBBABABAABAAAAABBABBABAAAABBAAAAAAABBAAABABABBBBAABBABBABAAAAAAABBBBBBABABBBBBBAAAAABBBBABBBBBABBBBABBAABBAAABABBBB</t>
+  </si>
+  <si>
+    <t>BB-BBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>BPL(5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +377,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,496 +676,1341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T19"/>
+  <dimension ref="A2:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="M2" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
-        <v>7</v>
-      </c>
       <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2288</v>
+      </c>
+      <c r="N5" s="2">
+        <v>395</v>
+      </c>
+      <c r="O5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P5" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="2">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1557</v>
+      </c>
+      <c r="N6" s="2">
+        <v>285</v>
+      </c>
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="P6" s="2">
+        <v>393</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>184</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="2">
+        <v>24887</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4137</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3540</v>
+      </c>
+      <c r="N8" s="2">
+        <v>613</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2">
         <v>7</v>
       </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="M8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="M9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3344</v>
+      </c>
+      <c r="N9" s="2">
+        <v>586</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="M10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3364</v>
+      </c>
+      <c r="N10" s="2">
+        <v>575</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="M11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1022</v>
+      </c>
+      <c r="N11" s="2">
+        <v>200</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="M12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>48</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>6</v>
+      </c>
+      <c r="P12" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="2">
+        <v>16884</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2809</v>
+      </c>
+      <c r="O13" s="2">
+        <v>6</v>
+      </c>
+      <c r="P13" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="2">
+        <v>27646</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4594</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>11</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16875</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2807</v>
+      </c>
+      <c r="O15" s="2">
+        <v>6</v>
+      </c>
+      <c r="P15" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>14</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="L19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2468503</v>
+      </c>
+      <c r="F20" s="2">
+        <v>209821</v>
+      </c>
+      <c r="G20" s="2">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2">
+        <v>257960</v>
+      </c>
+      <c r="F21" s="2">
+        <v>26709</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2">
+        <v>61744</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25321</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2">
+        <v>49218</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4851</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>141</v>
+      </c>
+      <c r="I26" s="2">
+        <v>34</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E27" s="2">
+        <v>386</v>
+      </c>
+      <c r="F27" s="2">
+        <v>31</v>
+      </c>
+      <c r="G27" s="2">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="M27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="2">
+        <v>118279</v>
+      </c>
+      <c r="N28" s="2">
+        <v>756</v>
+      </c>
+      <c r="O28" s="2">
+        <v>156</v>
+      </c>
+      <c r="P28" s="2">
+        <v>11457</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>133</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="D2:K2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L17:R17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>